--- a/with logs for unschedule with saturday sunday/excel_schedules/employee_7_genetic_schedule.xlsx
+++ b/with logs for unschedule with saturday sunday/excel_schedules/employee_7_genetic_schedule.xlsx
@@ -518,7 +518,217 @@
           <t>8:00 AM - 8:30 AM</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+    </row>
+    <row r="3" ht="50" customHeight="1">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>8:30 AM - 9:00 AM</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>DR 436 - Theater Production
+3E
+Room 235</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="50" customHeight="1">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>9:00 AM - 9:30 AM</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n"/>
+    </row>
+    <row r="5" ht="50" customHeight="1">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>9:30 AM - 10:00 AM</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n"/>
+    </row>
+    <row r="6" ht="50" customHeight="1">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>10:00 AM - 10:30 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="50" customHeight="1">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>10:30 AM - 11:00 AM</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>BS 422 - Business Strategy
+3C
+Room 217</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="50" customHeight="1">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>11:00 AM - 11:30 AM</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n"/>
+    </row>
+    <row r="9" ht="50" customHeight="1">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>11:30 AM - 12:00 PM</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="n"/>
+    </row>
+    <row r="10" ht="50" customHeight="1">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>12:00 PM - 12:30 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="50" customHeight="1">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>12:30 PM - 1:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="50" customHeight="1">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>1:00 PM - 1:30 PM</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>ACAD 408 - Advanced CAD
+3B
+Room 184</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="50" customHeight="1">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>1:30 PM - 2:00 PM</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="n"/>
+    </row>
+    <row r="14" ht="50" customHeight="1">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>2:00 PM - 2:30 PM</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="n"/>
+    </row>
+    <row r="15" ht="50" customHeight="1">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>2:30 PM - 3:00 PM</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="n"/>
+    </row>
+    <row r="16" ht="50" customHeight="1">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>3:00 PM - 3:30 PM</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>EC 306 - Economics
+2C
+Room 152</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>PH 320 - Physics
+2A
+Room 138</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="50" customHeight="1">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>3:30 PM - 4:00 PM</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="n"/>
+      <c r="H17" s="2" t="n"/>
+    </row>
+    <row r="18" ht="50" customHeight="1">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>4:00 PM - 4:30 PM</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="n"/>
+      <c r="H18" s="2" t="n"/>
+    </row>
+    <row r="19" ht="50" customHeight="1">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>4:30 PM - 5:00 PM</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="n"/>
+      <c r="H19" s="2" t="n"/>
+    </row>
+    <row r="20" ht="50" customHeight="1">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>5:00 PM - 5:30 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="50" customHeight="1">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>5:30 PM - 6:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="50" customHeight="1">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>6:00 PM - 6:30 PM</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>DR 436 - Theater Production
+3E
+Room 236</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="50" customHeight="1">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>6:30 PM - 7:00 PM</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="n"/>
+    </row>
+    <row r="24" ht="50" customHeight="1">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>7:00 PM - 7:30 PM</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
         <is>
           <t>ACAD 408 - Advanced CAD
 3B
@@ -526,215 +736,13 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="50" customHeight="1">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>8:30 AM - 9:00 AM</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="n"/>
-    </row>
-    <row r="4" ht="50" customHeight="1">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>9:00 AM - 9:30 AM</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="50" customHeight="1">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>9:30 AM - 10:00 AM</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>EC 306 - Economics
-2C
-Room 152</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>ACAD 408 - Advanced CAD
-3B
-Room 184</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="50" customHeight="1">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>10:00 AM - 10:30 AM</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="n"/>
-      <c r="D6" s="2" t="n"/>
-    </row>
-    <row r="7" ht="50" customHeight="1">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>10:30 AM - 11:00 AM</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="n"/>
-      <c r="D7" s="2" t="n"/>
-    </row>
-    <row r="8" ht="50" customHeight="1">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>11:00 AM - 11:30 AM</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="n"/>
-      <c r="D8" s="2" t="n"/>
-    </row>
-    <row r="9" ht="50" customHeight="1">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>11:30 AM - 12:00 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="50" customHeight="1">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t>12:00 PM - 12:30 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="50" customHeight="1">
-      <c r="A11" s="2" t="inlineStr">
-        <is>
-          <t>12:30 PM - 1:00 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="50" customHeight="1">
-      <c r="A12" s="2" t="inlineStr">
-        <is>
-          <t>1:00 PM - 1:30 PM</t>
-        </is>
-      </c>
-      <c r="B12" s="2" t="inlineStr">
-        <is>
-          <t>PH 320 - Physics
-2A
-Room 138</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="50" customHeight="1">
-      <c r="A13" s="2" t="inlineStr">
-        <is>
-          <t>1:30 PM - 2:00 PM</t>
-        </is>
-      </c>
-      <c r="B13" s="2" t="n"/>
-    </row>
-    <row r="14" ht="50" customHeight="1">
-      <c r="A14" s="2" t="inlineStr">
-        <is>
-          <t>2:00 PM - 2:30 PM</t>
-        </is>
-      </c>
-      <c r="B14" s="2" t="n"/>
-    </row>
-    <row r="15" ht="50" customHeight="1">
-      <c r="A15" s="2" t="inlineStr">
-        <is>
-          <t>2:30 PM - 3:00 PM</t>
-        </is>
-      </c>
-      <c r="B15" s="2" t="n"/>
-    </row>
-    <row r="16" ht="50" customHeight="1">
-      <c r="A16" s="2" t="inlineStr">
-        <is>
-          <t>3:00 PM - 3:30 PM</t>
-        </is>
-      </c>
-      <c r="B16" s="2" t="n"/>
-    </row>
-    <row r="17" ht="50" customHeight="1">
-      <c r="A17" s="2" t="inlineStr">
-        <is>
-          <t>3:30 PM - 4:00 PM</t>
-        </is>
-      </c>
-      <c r="B17" s="2" t="inlineStr">
-        <is>
-          <t>DR 436 - Theater Production
-3E
-Room 235</t>
-        </is>
-      </c>
-    </row>
-    <row r="18" ht="50" customHeight="1">
-      <c r="A18" s="2" t="inlineStr">
-        <is>
-          <t>4:00 PM - 4:30 PM</t>
-        </is>
-      </c>
-      <c r="B18" s="2" t="n"/>
-    </row>
-    <row r="19" ht="50" customHeight="1">
-      <c r="A19" s="2" t="inlineStr">
-        <is>
-          <t>4:30 PM - 5:00 PM</t>
-        </is>
-      </c>
-      <c r="B19" s="2" t="n"/>
-    </row>
-    <row r="20" ht="50" customHeight="1">
-      <c r="A20" s="2" t="inlineStr">
-        <is>
-          <t>5:00 PM - 5:30 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="21" ht="50" customHeight="1">
-      <c r="A21" s="2" t="inlineStr">
-        <is>
-          <t>5:30 PM - 6:00 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="22" ht="50" customHeight="1">
-      <c r="A22" s="2" t="inlineStr">
-        <is>
-          <t>6:00 PM - 6:30 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="23" ht="50" customHeight="1">
-      <c r="A23" s="2" t="inlineStr">
-        <is>
-          <t>6:30 PM - 7:00 PM</t>
-        </is>
-      </c>
-      <c r="B23" s="2" t="inlineStr">
-        <is>
-          <t>DR 436 - Theater Production
-3E
-Room 236</t>
-        </is>
-      </c>
-    </row>
-    <row r="24" ht="50" customHeight="1">
-      <c r="A24" s="2" t="inlineStr">
-        <is>
-          <t>7:00 PM - 7:30 PM</t>
-        </is>
-      </c>
-      <c r="B24" s="2" t="n"/>
-    </row>
     <row r="25" ht="50" customHeight="1">
       <c r="A25" s="2" t="inlineStr">
         <is>
           <t>7:30 PM - 8:00 PM</t>
         </is>
       </c>
+      <c r="B25" s="2" t="n"/>
     </row>
     <row r="26" ht="50" customHeight="1">
       <c r="A26" s="2" t="inlineStr">
@@ -752,13 +760,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B22:B23"/>
     <mergeCell ref="B12:B15"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="D5:D8"/>
+    <mergeCell ref="H16:H19"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="B24:B25"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/with logs for unschedule with saturday sunday/excel_schedules/employee_7_genetic_schedule.xlsx
+++ b/with logs for unschedule with saturday sunday/excel_schedules/employee_7_genetic_schedule.xlsx
@@ -26,7 +26,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -37,6 +37,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="00E0E0E0"/>
         <bgColor rgb="00E0E0E0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFB6C1"/>
+        <bgColor rgb="00FFB6C1"/>
       </patternFill>
     </fill>
   </fills>
@@ -79,12 +85,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -525,13 +534,6 @@
           <t>8:30 AM - 9:00 AM</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>DR 436 - Theater Production
-3E
-Room 235</t>
-        </is>
-      </c>
     </row>
     <row r="4" ht="50" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
@@ -539,7 +541,6 @@
           <t>9:00 AM - 9:30 AM</t>
         </is>
       </c>
-      <c r="B4" s="2" t="n"/>
     </row>
     <row r="5" ht="50" customHeight="1">
       <c r="A5" s="2" t="inlineStr">
@@ -547,7 +548,6 @@
           <t>9:30 AM - 10:00 AM</t>
         </is>
       </c>
-      <c r="B5" s="2" t="n"/>
     </row>
     <row r="6" ht="50" customHeight="1">
       <c r="A6" s="2" t="inlineStr">
@@ -562,13 +562,6 @@
           <t>10:30 AM - 11:00 AM</t>
         </is>
       </c>
-      <c r="B7" s="2" t="inlineStr">
-        <is>
-          <t>BS 422 - Business Strategy
-3C
-Room 217</t>
-        </is>
-      </c>
     </row>
     <row r="8" ht="50" customHeight="1">
       <c r="A8" s="2" t="inlineStr">
@@ -576,7 +569,6 @@
           <t>11:00 AM - 11:30 AM</t>
         </is>
       </c>
-      <c r="B8" s="2" t="n"/>
     </row>
     <row r="9" ht="50" customHeight="1">
       <c r="A9" s="2" t="inlineStr">
@@ -584,7 +576,6 @@
           <t>11:30 AM - 12:00 PM</t>
         </is>
       </c>
-      <c r="B9" s="2" t="n"/>
     </row>
     <row r="10" ht="50" customHeight="1">
       <c r="A10" s="2" t="inlineStr">
@@ -606,13 +597,6 @@
           <t>1:00 PM - 1:30 PM</t>
         </is>
       </c>
-      <c r="B12" s="2" t="inlineStr">
-        <is>
-          <t>ACAD 408 - Advanced CAD
-3B
-Room 184</t>
-        </is>
-      </c>
     </row>
     <row r="13" ht="50" customHeight="1">
       <c r="A13" s="2" t="inlineStr">
@@ -620,7 +604,6 @@
           <t>1:30 PM - 2:00 PM</t>
         </is>
       </c>
-      <c r="B13" s="2" t="n"/>
     </row>
     <row r="14" ht="50" customHeight="1">
       <c r="A14" s="2" t="inlineStr">
@@ -628,7 +611,6 @@
           <t>2:00 PM - 2:30 PM</t>
         </is>
       </c>
-      <c r="B14" s="2" t="n"/>
     </row>
     <row r="15" ht="50" customHeight="1">
       <c r="A15" s="2" t="inlineStr">
@@ -636,7 +618,6 @@
           <t>2:30 PM - 3:00 PM</t>
         </is>
       </c>
-      <c r="B15" s="2" t="n"/>
     </row>
     <row r="16" ht="50" customHeight="1">
       <c r="A16" s="2" t="inlineStr">
@@ -644,20 +625,6 @@
           <t>3:00 PM - 3:30 PM</t>
         </is>
       </c>
-      <c r="B16" s="2" t="inlineStr">
-        <is>
-          <t>EC 306 - Economics
-2C
-Room 152</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>PH 320 - Physics
-2A
-Room 138</t>
-        </is>
-      </c>
     </row>
     <row r="17" ht="50" customHeight="1">
       <c r="A17" s="2" t="inlineStr">
@@ -665,8 +632,6 @@
           <t>3:30 PM - 4:00 PM</t>
         </is>
       </c>
-      <c r="B17" s="2" t="n"/>
-      <c r="H17" s="2" t="n"/>
     </row>
     <row r="18" ht="50" customHeight="1">
       <c r="A18" s="2" t="inlineStr">
@@ -674,8 +639,6 @@
           <t>4:00 PM - 4:30 PM</t>
         </is>
       </c>
-      <c r="B18" s="2" t="n"/>
-      <c r="H18" s="2" t="n"/>
     </row>
     <row r="19" ht="50" customHeight="1">
       <c r="A19" s="2" t="inlineStr">
@@ -683,8 +646,6 @@
           <t>4:30 PM - 5:00 PM</t>
         </is>
       </c>
-      <c r="B19" s="2" t="n"/>
-      <c r="H19" s="2" t="n"/>
     </row>
     <row r="20" ht="50" customHeight="1">
       <c r="A20" s="2" t="inlineStr">
@@ -699,6 +660,22 @@
           <t>5:30 PM - 6:00 PM</t>
         </is>
       </c>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IS 113 - IS/IT Service Management
+1B
+Room 305
+Emp: 7</t>
+        </is>
+      </c>
+      <c r="E21" s="3" t="inlineStr">
+        <is>
+          <t>IS 113 - IS/IT Service Management
+1A
+Room 303
+Emp: 7</t>
+        </is>
+      </c>
     </row>
     <row r="22" ht="50" customHeight="1">
       <c r="A22" s="2" t="inlineStr">
@@ -706,13 +683,8 @@
           <t>6:00 PM - 6:30 PM</t>
         </is>
       </c>
-      <c r="B22" s="2" t="inlineStr">
-        <is>
-          <t>DR 436 - Theater Production
-3E
-Room 236</t>
-        </is>
-      </c>
+      <c r="B22" s="3" t="n"/>
+      <c r="E22" s="3" t="n"/>
     </row>
     <row r="23" ht="50" customHeight="1">
       <c r="A23" s="2" t="inlineStr">
@@ -720,7 +692,8 @@
           <t>6:30 PM - 7:00 PM</t>
         </is>
       </c>
-      <c r="B23" s="2" t="n"/>
+      <c r="B23" s="3" t="n"/>
+      <c r="E23" s="3" t="n"/>
     </row>
     <row r="24" ht="50" customHeight="1">
       <c r="A24" s="2" t="inlineStr">
@@ -728,11 +701,20 @@
           <t>7:00 PM - 7:30 PM</t>
         </is>
       </c>
-      <c r="B24" s="2" t="inlineStr">
-        <is>
-          <t>ACAD 408 - Advanced CAD
-3B
-Room 203</t>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IS 113 - IS/IT Service Management
+1B
+Room 303
+Emp: 7</t>
+        </is>
+      </c>
+      <c r="F24" s="3" t="inlineStr">
+        <is>
+          <t>IS 113 - IS/IT Service Management
+1A
+Room 305
+Emp: 7</t>
         </is>
       </c>
     </row>
@@ -742,7 +724,8 @@
           <t>7:30 PM - 8:00 PM</t>
         </is>
       </c>
-      <c r="B25" s="2" t="n"/>
+      <c r="B25" s="3" t="n"/>
+      <c r="F25" s="3" t="n"/>
     </row>
     <row r="26" ht="50" customHeight="1">
       <c r="A26" s="2" t="inlineStr">
@@ -750,6 +733,8 @@
           <t>8:00 PM - 8:30 PM</t>
         </is>
       </c>
+      <c r="B26" s="3" t="n"/>
+      <c r="F26" s="3" t="n"/>
     </row>
     <row r="27" ht="50" customHeight="1">
       <c r="A27" s="2" t="inlineStr">
@@ -759,14 +744,11 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="H16:H19"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="B24:B25"/>
+  <mergeCells count="4">
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B21:B23"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
